--- a/HUMA.xlsx
+++ b/HUMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF32245F-2507-47F2-99E0-247CFBC005F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6AED2-29D8-4E9C-B014-EAB17077A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30960" yWindow="1380" windowWidth="27675" windowHeight="19530" activeTab="1" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
+    <workbookView xWindow="-34620" yWindow="3915" windowWidth="28770" windowHeight="15450" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -241,7 +241,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -590,41 +589,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D0FBB-A5EB-4470-AB7B-B3FA9007B24C}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>7</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -637,26 +638,18 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>835.457854</v>
+        <v>625.39987928000005</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -669,11 +662,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -686,26 +675,22 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>799.97285399999998</v>
+        <v>589.91487928000004</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
@@ -748,9 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D4631-7F97-41B4-884C-CCB74A62A2C7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -759,7 +742,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -785,7 +768,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
     </row>

--- a/HUMA.xlsx
+++ b/HUMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6AED2-29D8-4E9C-B014-EAB17077A22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96126A31-BC78-B045-B1D1-AE14EBB4AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34620" yWindow="3915" windowWidth="28770" windowHeight="15450" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20800" activeTab="1" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Price</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Phase II/III V005 n=69 gun shots, workplace injuries, car accidents, or other traumatic events</t>
+  </si>
+  <si>
+    <t>Phase III "V007"</t>
+  </si>
+  <si>
+    <t>Single-arm study in US &amp; Israel</t>
+  </si>
+  <si>
+    <t>Saphenous graft was not available, alternatives: synthetic graft, amputation, ligation</t>
+  </si>
+  <si>
+    <t>secondary patency (blood flow) at 30 days</t>
+  </si>
+  <si>
+    <t>primary patency (blood flow without intervention) also evaluated</t>
+  </si>
+  <si>
+    <t>89.9% primary endpoint vs. 81.1% for synthetic grafts</t>
   </si>
 </sst>
 </file>
@@ -233,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -250,6 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,18 +609,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D0FBB-A5EB-4470-AB7B-B3FA9007B24C}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
@@ -618,8 +638,8 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
@@ -636,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
       <c r="G4" s="5"/>
       <c r="I4" t="s">
@@ -647,7 +667,7 @@
         <v>625.39987928000005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="4"/>
       <c r="G5" s="5"/>
       <c r="I5" t="s">
@@ -660,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
       <c r="G6" s="5"/>
       <c r="I6" t="s">
@@ -673,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="G7" s="5"/>
       <c r="I7" t="s">
@@ -684,7 +704,7 @@
         <v>589.91487928000004</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -692,7 +712,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
         <v>7</v>
       </c>
@@ -703,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>8</v>
       </c>
@@ -714,39 +734,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="ATEV!A1" display="ATEV (acellular tissue engineered vessel)" xr:uid="{545F49C8-E668-374A-9F3A-6F4779194CE2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D4631-7F97-41B4-884C-CCB74A62A2C7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -754,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -762,14 +787,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="13" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/HUMA.xlsx
+++ b/HUMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96126A31-BC78-B045-B1D1-AE14EBB4AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F618A7-1347-4B78-8644-8AD280706750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20800" activeTab="1" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
+    <workbookView xWindow="-36120" yWindow="1305" windowWidth="30855" windowHeight="18675" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -138,6 +138,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -269,7 +276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,18 +616,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D0FBB-A5EB-4470-AB7B-B3FA9007B24C}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
@@ -638,7 +645,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -656,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="G4" s="5"/>
       <c r="I4" t="s">
@@ -667,7 +674,7 @@
         <v>625.39987928000005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="G5" s="5"/>
       <c r="I5" t="s">
@@ -680,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="G6" s="5"/>
       <c r="I6" t="s">
@@ -693,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="G7" s="5"/>
       <c r="I7" t="s">
@@ -704,7 +711,7 @@
         <v>589.91487928000004</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -712,7 +719,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>7</v>
       </c>
@@ -723,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>8</v>
       </c>
@@ -734,12 +741,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I12" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>15</v>
       </c>
@@ -756,22 +763,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D4631-7F97-41B4-884C-CCB74A62A2C7}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -779,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -787,42 +792,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
         <v>20</v>
       </c>

--- a/HUMA.xlsx
+++ b/HUMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F618A7-1347-4B78-8644-8AD280706750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93911E23-739A-144F-A12F-41B9FB3E7DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36120" yWindow="1305" windowWidth="30855" windowHeight="18675" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
+    <workbookView xWindow="8300" yWindow="760" windowWidth="26260" windowHeight="20500" activeTab="1" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Price</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>89.9% primary endpoint vs. 81.1% for synthetic grafts</t>
+  </si>
+  <si>
+    <t>Symvess</t>
   </si>
 </sst>
 </file>
@@ -616,18 +619,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D0FBB-A5EB-4470-AB7B-B3FA9007B24C}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
@@ -645,7 +646,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -663,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
       <c r="G4" s="5"/>
       <c r="I4" t="s">
@@ -674,7 +675,7 @@
         <v>625.39987928000005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="4"/>
       <c r="G5" s="5"/>
       <c r="I5" t="s">
@@ -687,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
       <c r="G6" s="5"/>
       <c r="I6" t="s">
@@ -700,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
       <c r="G7" s="5"/>
       <c r="I7" t="s">
@@ -711,7 +712,7 @@
         <v>589.91487928000004</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -719,7 +720,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
         <v>7</v>
       </c>
@@ -730,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>8</v>
       </c>
@@ -741,12 +742,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
         <v>15</v>
       </c>
@@ -761,22 +762,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D4631-7F97-41B4-884C-CCB74A62A2C7}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -784,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -792,44 +795,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="13" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/HUMA.xlsx
+++ b/HUMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93911E23-739A-144F-A12F-41B9FB3E7DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F1467-DB81-4E96-AAE6-E7C56853A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="760" windowWidth="26260" windowHeight="20500" activeTab="1" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
+    <workbookView xWindow="-33210" yWindow="2070" windowWidth="29010" windowHeight="15345" activeTab="1" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Price</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Phase II/III V005 n=69 gun shots, workplace injuries, car accidents, or other traumatic events</t>
   </si>
   <si>
-    <t>Phase III "V007"</t>
-  </si>
-  <si>
     <t>Single-arm study in US &amp; Israel</t>
   </si>
   <si>
@@ -118,6 +115,12 @@
   </si>
   <si>
     <t>Symvess</t>
+  </si>
+  <si>
+    <t>Phase III "V007" dialysis</t>
+  </si>
+  <si>
+    <t>Phase II "V006"</t>
   </si>
 </sst>
 </file>
@@ -621,14 +624,14 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
@@ -646,7 +649,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -664,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="G4" s="5"/>
       <c r="I4" t="s">
@@ -675,7 +678,7 @@
         <v>625.39987928000005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="G5" s="5"/>
       <c r="I5" t="s">
@@ -688,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="G6" s="5"/>
       <c r="I6" t="s">
@@ -701,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="G7" s="5"/>
       <c r="I7" t="s">
@@ -712,7 +715,7 @@
         <v>589.91487928000004</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -720,7 +723,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>7</v>
       </c>
@@ -731,7 +734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>8</v>
       </c>
@@ -742,12 +745,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>15</v>
       </c>
@@ -762,24 +765,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D4631-7F97-41B4-884C-CCB74A62A2C7}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -787,7 +790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -795,49 +798,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C10" s="15" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/HUMA.xlsx
+++ b/HUMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F1467-DB81-4E96-AAE6-E7C56853A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F68FB89-03E9-43CC-8A8A-244F70198C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33210" yWindow="2070" windowWidth="29010" windowHeight="15345" activeTab="1" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
+    <workbookView xWindow="-26610" yWindow="495" windowWidth="26535" windowHeight="17955" xr2:uid="{CF6B21F1-D8F9-4AEB-84B0-54B32E316D95}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Price</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Phase II "V006"</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>5.68182 at 5.28</t>
+  </si>
+  <si>
+    <t>2.808988 at 5.34</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D0FBB-A5EB-4470-AB7B-B3FA9007B24C}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -646,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>5.24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -661,10 +672,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>119.351122</v>
+        <f>119.351122+2.808988+5.68182</f>
+        <v>127.84193</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -675,7 +687,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>625.39987928000005</v>
+        <v>767.05158000000006</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -685,10 +697,11 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>95.563000000000002</v>
+        <f>20.571+50.209+45</f>
+        <v>115.78</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -698,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>60.078000000000003</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -712,7 +725,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>589.91487928000004</v>
+        <v>651.27158000000009</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -745,7 +758,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f>2.808988*5.34</f>
+        <v>14.999995919999998</v>
+      </c>
+    </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <f>5.68182*5.28</f>
+        <v>30.000009600000002</v>
+      </c>
       <c r="I13" t="s">
         <v>9</v>
       </c>
@@ -767,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D4631-7F97-41B4-884C-CCB74A62A2C7}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
